--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,34 +454,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raghuveer</t>
+          <t>Ritesh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CI077</t>
+          <t>CI079</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-13 08:19:14</t>
+          <t>2024-11-13 14:38:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shashank</t>
+          <t>Raghuveer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CI094</t>
+          <t>CI077</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-11-13 08:19:14</t>
+          <t>2024-11-13 14:38:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pannaga</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CI064</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Praveen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CI074</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SWarna</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CI02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pavan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CI067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sanath</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CI088</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ruthu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CI097</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:14</t>
         </is>
       </c>
     </row>
@@ -496,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,12 +609,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>usn</t>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
         </is>
       </c>
     </row>
@@ -527,64 +634,26 @@
           <t>Is099</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:14</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ritesh</t>
+          <t>Shashank</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CI079</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ruthu</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CI097</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sanath</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CI088</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pannaga</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CI064</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Praveen</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CI074</t>
+          <t>CI094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-11-13 14:38:14</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,136 +454,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ritesh</t>
+          <t>Pannaga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CI079</t>
+          <t>CI064</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-13 14:38:11</t>
+          <t>2024-11-13 17:50:46</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raghuveer</t>
+          <t>Ritesh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CI077</t>
+          <t>CI079</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-11-13 14:38:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pannaga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CI064</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-11-13 14:38:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Praveen</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CI074</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-11-13 14:38:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SWarna</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CI02</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-11-13 14:38:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Pavan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CI067</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-11-13 14:38:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sanath</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CI088</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-11-13 14:38:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ruthu</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CI097</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-11-13 14:38:14</t>
+          <t>2024-11-13 17:50:47</t>
         </is>
       </c>
     </row>
@@ -598,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,34 +524,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Poornima</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Is099</t>
+          <t>USN12345</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-13 14:38:14</t>
+          <t>2024-11-13 17:50:47</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Sanath</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CI088</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SWarna</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CI02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Raghuveer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CI077</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pavan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CI067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Praveen</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CI074</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ruthu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CI097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Shashank</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>CI094</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-11-13 14:38:14</t>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50:47</t>
         </is>
       </c>
     </row>
